--- a/model_exports/labels/2.0_False_False_7_0.xlsx
+++ b/model_exports/labels/2.0_False_False_7_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C732"/>
+  <dimension ref="A1:C733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,11 +453,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-675691648802795522</t>
+          <t>t-1025792018793021440</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -466,7 +466,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-509432328561885184</t>
+          <t>t-494463913853874176</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -479,11 +479,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-508961106849574912</t>
+          <t>t-494829977268146176</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -492,24 +492,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-509046359354511360</t>
+          <t>t-495010606047821824</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-509083951655174144</t>
+          <t>t-495017350790668289</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -518,11 +518,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-509100730960314368</t>
+          <t>t-495805012929708033</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -531,37 +531,37 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-509131102796414976</t>
+          <t>t-504042718663036928</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-509142523403862017</t>
+          <t>t-504366068648148992</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-509208349511262208</t>
+          <t>t-504850389129129984</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -570,20 +570,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-509223264921878528</t>
+          <t>t-504998704118394880</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-509224131880300544</t>
+          <t>t-508961106849574912</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -596,24 +596,24 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-511851013155090432</t>
+          <t>t-509046359354511360</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-512006361937616896</t>
+          <t>t-509083951655174144</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -622,11 +622,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-512017939579432960</t>
+          <t>t-509100730960314368</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -635,46 +635,46 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-561169293573115904</t>
+          <t>t-509131102796414976</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-571473938481602560</t>
+          <t>t-509142523403862017</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-629748063494537216</t>
+          <t>t-509208349511262208</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-629757802915848193</t>
+          <t>t-509223264921878528</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -687,33 +687,33 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-759240736864870400</t>
+          <t>t-509224131880300544</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-887418286014570496</t>
+          <t>t-571473938481602560</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-641712529677398016</t>
+          <t>t-610974241895354368</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -726,7 +726,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-683960479224586240</t>
+          <t>t-624374054338867201</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -739,20 +739,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-684033292694327296</t>
+          <t>t-706805466739949568</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-684082364117585920</t>
+          <t>t-763135506188206084</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -765,11 +765,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-684154242035089408</t>
+          <t>t-763744681616257025</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -778,20 +778,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-775697386924445696</t>
+          <t>t-764320260182806528</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-830539164638703616</t>
+          <t>t-833214575512150018</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -804,20 +804,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-854007994534813696</t>
+          <t>t-977115036585021440</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-865644367372967936</t>
+          <t>t-521738184288251906</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -830,7 +830,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-866152720700514304</t>
+          <t>t-521768704259162112</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -843,37 +843,37 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-875748360933847041</t>
+          <t>t-548786999432605696</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-945777508007464961</t>
+          <t>t-549031298929786880</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-950310866641149952</t>
+          <t>t-605091889558261760</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -882,20 +882,20 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-1003697920015851520</t>
+          <t>t-605138894867161088</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-1022084644039258112</t>
+          <t>t-605351836636311552</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -908,46 +908,46 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-1028763648074940416</t>
+          <t>t-765195503457882112</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-1028815266174517249</t>
+          <t>t-765297031346655232</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-1028873828355780608</t>
+          <t>t-773705145389645824</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-1029034881769197569</t>
+          <t>t-775697386924445696</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -960,124 +960,124 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-1029100538422587393</t>
+          <t>t-815615714082095105</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-507610683022643200</t>
+          <t>t-816012131535613952</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-778024515909537792</t>
+          <t>t-816043428630839296</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-819315426853273600</t>
+          <t>t-816046695377158145</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-517568253363634176</t>
+          <t>t-816056629867188225</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-518546395729379328</t>
+          <t>t-816367923770118149</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-519264703466315776</t>
+          <t>t-816380623434592257</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-594694315915350017</t>
+          <t>t-848784048755531776</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-685243474623336449</t>
+          <t>t-848852185962037248</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-687924478219685888</t>
+          <t>t-848864915762929664</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1090,33 +1090,33 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-687934498701455360</t>
+          <t>t-848891572318072832</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-746432967740882945</t>
+          <t>t-849117747430797312</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-928952366598037506</t>
+          <t>t-849222321772658688</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1129,11 +1129,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-989808164907319296</t>
+          <t>t-849255695249625088</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1142,20 +1142,20 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-992796128654524417</t>
+          <t>t-849369868306665472</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-1010157701769281538</t>
+          <t>t-849634891255951364</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1168,46 +1168,46 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-1047054739547013120</t>
+          <t>t-849637507117568000</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-1047068713986547712</t>
+          <t>t-849667565186146304</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-1047079117244399617</t>
+          <t>t-849686849312501763</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-1047083573738500096</t>
+          <t>t-849743357312024576</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1220,11 +1220,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-610241505777856512</t>
+          <t>t-850026468906340353</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -1233,11 +1233,11 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-610629417715412992</t>
+          <t>t-850319148420694016</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1246,24 +1246,24 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-612750086443917313</t>
+          <t>t-850426637086842884</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-764602141449170944</t>
+          <t>t-850856929295552513</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-885277243991314432</t>
+          <t>t-858824188815056896</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1285,7 +1285,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-885292685086646272</t>
+          <t>t-859408582407749634</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1298,7 +1298,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-1006061673487138817</t>
+          <t>t-859423315986874372</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1311,7 +1311,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-618057796345593856</t>
+          <t>t-859882605604425731</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1324,7 +1324,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-621832039763849218</t>
+          <t>t-865644367372967936</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1337,20 +1337,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-621845142903754752</t>
+          <t>t-866152720700514304</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-710560200558653440</t>
+          <t>t-875748360933847041</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1363,20 +1363,20 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-752623570010812416</t>
+          <t>t-889549980888969217</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-752689111933214722</t>
+          <t>t-889892042435854336</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1389,33 +1389,33 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-752696262009450496</t>
+          <t>t-890080777769283584</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-752724839081791488</t>
+          <t>t-894637864561987584</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-773307883878363136</t>
+          <t>t-894643508547526657</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1428,46 +1428,46 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-910574474956812289</t>
+          <t>t-894960674811596800</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-1016140956322713601</t>
+          <t>t-894974152540553216</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-548325093256884224</t>
+          <t>t-894976401597763584</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-611854657594486784</t>
+          <t>t-895262760954736640</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1480,11 +1480,11 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-764358428777078784</t>
+          <t>t-902187406123835394</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -1493,7 +1493,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-1018620410819219456</t>
+          <t>t-902225607563644928</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1506,20 +1506,20 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-1027386544536150016</t>
+          <t>t-922305869466890240</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-567811309744705538</t>
+          <t>t-924109747627929600</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1532,20 +1532,20 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-781902339066191873</t>
+          <t>t-959172176346836993</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-832310546871484416</t>
+          <t>t-965645492616036357</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1558,24 +1558,24 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-836993229967015937</t>
+          <t>t-965648872474398721</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-837317730147713024</t>
+          <t>t-965652051077357569</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -1584,11 +1584,11 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-927521858815131648</t>
+          <t>t-966072585061625856</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -1597,59 +1597,59 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-1000477141224558594</t>
+          <t>t-966155045300588545</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-950852460532428800</t>
+          <t>t-966356829596016640</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-953648628647706624</t>
+          <t>t-966362179913093121</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-843394427347320833</t>
+          <t>t-966449125788090370</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-575924078906904576</t>
+          <t>t-966450069024239616</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1662,7 +1662,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-986841970411823104</t>
+          <t>t-966465261950906369</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1675,11 +1675,11 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-1031843897373278208</t>
+          <t>t-966698278606856197</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-543357722591514624</t>
+          <t>t-966704060270370817</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1701,20 +1701,20 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-542093659286429696</t>
+          <t>t-966706278016999424</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-583930739512713216</t>
+          <t>t-966769885220163586</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1727,50 +1727,50 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-949552218650365952</t>
+          <t>t-977248381662892039</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-546995440701296643</t>
+          <t>t-977294782048428032</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-547131830642569216</t>
+          <t>t-985145363618246656</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-559857374312529920</t>
+          <t>t-985306564868354049</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-559902019893202944</t>
+          <t>t-1003697920015851520</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1792,50 +1792,50 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-841795901764993024</t>
+          <t>t-1022084644039258112</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-841877177624850434</t>
+          <t>t-1030587514820669441</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-1062308914354642944</t>
+          <t>t-1030625730407874563</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-595961510528180224</t>
+          <t>t-1031145618503360513</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -1844,11 +1844,11 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-604735735154012160</t>
+          <t>t-1031309689848508416</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -1857,33 +1857,33 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-603598228022501376</t>
+          <t>t-778024515909537792</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-590950091256631296</t>
+          <t>t-827438952974004224</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-621245283935121408</t>
+          <t>t-863147106038624256</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1896,24 +1896,24 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-826760200636002305</t>
+          <t>t-863168507747454977</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-849724022598139904</t>
+          <t>t-922536592429993985</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
         <v>1</v>
@@ -1922,33 +1922,33 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-624561158788247552</t>
+          <t>t-925753092301295616</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-941641219024748544</t>
+          <t>t-934407049034846208</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-903173716451909632</t>
+          <t>t-533166195508117505</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1961,20 +1961,20 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-681167053609283584</t>
+          <t>t-606774570255654912</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-694715871097278464</t>
+          <t>t-608562753129840640</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1987,24 +1987,24 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-753685864471863300</t>
+          <t>t-687924478219685888</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-883046827251179521</t>
+          <t>t-687934498701455360</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -2013,20 +2013,20 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-883048887786909698</t>
+          <t>t-746432967740882945</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-883064523128791040</t>
+          <t>t-754462771173924865</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2039,20 +2039,20 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-883077275679432704</t>
+          <t>t-801687875939078144</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-733452580194410497</t>
+          <t>t-841634951439220736</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2065,7 +2065,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-840282206979444737</t>
+          <t>t-903960318652669952</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2078,7 +2078,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-840289139450925056</t>
+          <t>t-903973451970392064</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2091,20 +2091,20 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-758205502480388096</t>
+          <t>t-924921911510949890</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-758575120290091008</t>
+          <t>t-924939317381758976</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2117,7 +2117,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-782856010625003521</t>
+          <t>t-925210606361300992</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2130,11 +2130,11 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-864813217943441412</t>
+          <t>t-925257914817892352</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-781685141211058176</t>
+          <t>t-992796128654524417</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -2156,50 +2156,50 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-1050435927066198018</t>
+          <t>t-1010157701769281538</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-892821066799820805</t>
+          <t>t-770776256669372416</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-898040952396193792</t>
+          <t>t-981152225723604993</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-898113774225301505</t>
+          <t>t-717023541078728704</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -2208,11 +2208,11 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-507905858265960448</t>
+          <t>t-903082857492566018</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
         <v>1</v>
@@ -2221,7 +2221,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-863311681820258304</t>
+          <t>t-1050075728891535361</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -2234,20 +2234,20 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-604384366886834177</t>
+          <t>t-1050076017593745408</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-604797500965265408</t>
+          <t>t-1050077658590134272</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -2260,37 +2260,37 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-605112787141033985</t>
+          <t>t-1050092626786037760</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-605369768720396288</t>
+          <t>t-1050210928594173952</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-682987194840150016</t>
+          <t>t-1050446607055896576</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
         <v>1</v>
@@ -2299,7 +2299,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-752596726066843648</t>
+          <t>t-1051200746312663040</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -2312,20 +2312,20 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-753413745230094338</t>
+          <t>t-511616761545121792</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-784456849215123457</t>
+          <t>t-767772450964725760</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2338,33 +2338,33 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-785997107094093825</t>
+          <t>t-512768543989825541</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-794700824404430848</t>
+          <t>t-751267650043387906</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-815857432882769920</t>
+          <t>t-567811309744705538</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -2377,7 +2377,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-816077181575106560</t>
+          <t>t-836993229967015937</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -2390,24 +2390,24 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-833578679338942464</t>
+          <t>t-837317730147713024</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-858067034772566016</t>
+          <t>t-981162868749033472</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -2416,24 +2416,24 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-858109132586483713</t>
+          <t>t-981305166392692736</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-978842874749046784</t>
+          <t>t-981306180961275904</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -2442,11 +2442,11 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-979067875213234176</t>
+          <t>t-524878421172953088</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
         <v>1</v>
@@ -2455,7 +2455,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-1016477854391992320</t>
+          <t>t-672497431242756096</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -2468,7 +2468,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-1036976718718881793</t>
+          <t>t-676490487717625856</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2481,11 +2481,11 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-626642400555892737</t>
+          <t>t-676517665188507650</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -2494,46 +2494,46 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-626741309693394948</t>
+          <t>t-536361968840769536</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-626870204199534598</t>
+          <t>t-540815358715002880</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-763041051426775040</t>
+          <t>t-630358013853990912</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-763066608868794368</t>
+          <t>t-783792055160082432</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2546,7 +2546,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-763135787424636928</t>
+          <t>t-953935668199215104</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2559,11 +2559,11 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-897457481550618624</t>
+          <t>t-953991296196149248</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -2572,20 +2572,20 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-1004794708802048002</t>
+          <t>t-955387095228567552</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-1006674770983817217</t>
+          <t>t-1031843897373278208</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2598,7 +2598,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-1008536493269237760</t>
+          <t>t-1042485319055155201</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2611,7 +2611,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-1035948096843395073</t>
+          <t>t-543357722591514624</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2624,37 +2624,37 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-1054153981998575616</t>
+          <t>t-665687399033397248</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-796087988140834817</t>
+          <t>t-928583361618169856</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-569509595133173761</t>
+          <t>t-542093659286429696</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
         <v>1</v>
@@ -2663,11 +2663,11 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-705116084911763456</t>
+          <t>t-936531630868529152</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-708952691926548480</t>
+          <t>t-559857374312529920</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2689,85 +2689,85 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-726061174727532544</t>
+          <t>t-559902019893202944</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-799654742746165248</t>
+          <t>t-841795901764993024</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-810931684396896256</t>
+          <t>t-841877177624850434</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-811056347773026304</t>
+          <t>t-622526710358114306</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-811268248448724993</t>
+          <t>t-987722164903251968</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-841637693608071170</t>
+          <t>t-821731492581744642</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-894936422980964352</t>
+          <t>t-821745652803764226</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2780,59 +2780,59 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-903533073358352385</t>
+          <t>t-578289267857891328</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-903589529143189504</t>
+          <t>t-598299676807340033</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-972048308909826048</t>
+          <t>t-894558986925744129</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-1003317489990848512</t>
+          <t>t-901151504714870784</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-1003350897521459202</t>
+          <t>t-612099863975583744</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2845,20 +2845,20 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-1003359993201025024</t>
+          <t>t-612781430335082496</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-1003379549600731139</t>
+          <t>t-612783809587580928</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2871,7 +2871,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-1006258184636510210</t>
+          <t>t-618586257753374720</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2884,20 +2884,20 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-1041944531015483392</t>
+          <t>t-698546841881853953</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-1042049144620285953</t>
+          <t>t-708373253648207873</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2910,7 +2910,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-1014627656082579457</t>
+          <t>t-791266893470568448</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2923,20 +2923,20 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-903255663417204736</t>
+          <t>t-791268686447378433</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-1045126070540865541</t>
+          <t>t-870660332800397312</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2949,11 +2949,11 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-646786233809539072</t>
+          <t>t-870684149173977089</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -2962,33 +2962,33 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-726931802141659137</t>
+          <t>t-878162982953402368</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-836430214368481288</t>
+          <t>t-886294080040423425</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-698062078922375169</t>
+          <t>t-917499339278254080</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -3001,7 +3001,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-769170271928483840</t>
+          <t>t-972059634101047296</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -3014,63 +3014,63 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-801380815166930945</t>
+          <t>t-756982430985166848</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-946151169231114241</t>
+          <t>t-756983738035077120</t>
         </is>
       </c>
       <c r="B200" t="n">
         <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-951353773321945088</t>
+          <t>t-757172169029804034</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-951370648210767877</t>
+          <t>t-636384018599030785</t>
         </is>
       </c>
       <c r="B202" t="n">
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-1060159476664356864</t>
+          <t>t-715573202714562561</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C203" t="n">
         <v>1</v>
@@ -3079,7 +3079,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-560425264807944193</t>
+          <t>t-809566350368796673</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -3092,20 +3092,20 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-803598066133573632</t>
+          <t>t-681167053609283584</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-811342708061024256</t>
+          <t>t-694715871097278464</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -3118,20 +3118,20 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-573120640175112192</t>
+          <t>t-890798435175063552</t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-610512692353310721</t>
+          <t>t-1022049211108483072</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -3144,7 +3144,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-610555659969409025</t>
+          <t>t-1022100736476360704</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3157,7 +3157,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-722677158112587776</t>
+          <t>t-883080365442838528</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -3170,11 +3170,11 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-573292412430376960</t>
+          <t>t-883215183442739200</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
@@ -3183,33 +3183,33 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-862378347007025154</t>
+          <t>t-733452580194410497</t>
         </is>
       </c>
       <c r="B212" t="n">
         <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-930445521671589888</t>
+          <t>t-1029734360872771584</t>
         </is>
       </c>
       <c r="B213" t="n">
         <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-992126872036233224</t>
+          <t>t-888405582352437248</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -3222,20 +3222,20 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-993085432052273153</t>
+          <t>t-1054403005032947712</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-659011315088781312</t>
+          <t>t-507905858265960448</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -3248,11 +3248,11 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-659473740955189248</t>
+          <t>t-657266493659435008</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C217" t="n">
         <v>1</v>
@@ -3261,20 +3261,20 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-798356661148655616</t>
+          <t>t-640924573647503360</t>
         </is>
       </c>
       <c r="B218" t="n">
         <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-798650812511588352</t>
+          <t>t-641489320088436736</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -3287,76 +3287,76 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-892449776129777665</t>
+          <t>t-660036667412082688</t>
         </is>
       </c>
       <c r="B220" t="n">
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-892462041277091840</t>
+          <t>t-660641499701489665</t>
         </is>
       </c>
       <c r="B221" t="n">
         <v>1</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-892471980875808773</t>
+          <t>t-708426270242164736</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-892472490483646466</t>
+          <t>t-726041703153545216</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-892606487482089472</t>
+          <t>t-726754497737826305</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-892633367342088192</t>
+          <t>t-952979792495816704</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C225" t="n">
         <v>1</v>
@@ -3365,11 +3365,11 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-892700840817045504</t>
+          <t>t-1016477854391992320</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -3378,11 +3378,11 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-892731725897281538</t>
+          <t>t-1026272267364253698</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C227" t="n">
         <v>1</v>
@@ -3391,7 +3391,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-897976904019476481</t>
+          <t>t-593171698846830592</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -3404,33 +3404,33 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-1042410099652919297</t>
+          <t>t-620793830413959168</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-764130662836084739</t>
+          <t>t-886785151694512128</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-1012441483654332417</t>
+          <t>t-886797636501520384</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -3443,7 +3443,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-729341140499976193</t>
+          <t>t-886952472035549185</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -3456,7 +3456,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-729421969410564096</t>
+          <t>t-887152237432061952</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -3469,7 +3469,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-729436964269658112</t>
+          <t>t-887308832208293888</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -3482,7 +3482,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-729446762138591232</t>
+          <t>t-888147986982649856</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3495,50 +3495,50 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-729454167735959552</t>
+          <t>t-897457481550618624</t>
         </is>
       </c>
       <c r="B236" t="n">
         <v>1</v>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-729749802209054720</t>
+          <t>t-1008536493269237760</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-599363330575364096</t>
+          <t>t-619624637685755904</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-686862688752807937</t>
+          <t>t-683790340701073408</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C239" t="n">
         <v>1</v>
@@ -3547,24 +3547,24 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-763085869045653505</t>
+          <t>t-609714781507993601</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-763088808799797248</t>
+          <t>t-609790992309469184</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -3573,7 +3573,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-839501967894405121</t>
+          <t>t-609807635727151104</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -3586,33 +3586,33 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-839604530048299008</t>
+          <t>t-610006959677382657</t>
         </is>
       </c>
       <c r="B243" t="n">
         <v>1</v>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-889534953825779712</t>
+          <t>t-610466198136954881</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-889639312169500672</t>
+          <t>t-616575922674769920</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -3625,37 +3625,37 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-1047526401644138497</t>
+          <t>t-616694572853256192</t>
         </is>
       </c>
       <c r="B246" t="n">
         <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-786005533685710849</t>
+          <t>t-638674545726066688</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-878774409280016384</t>
+          <t>t-638724428944150528</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -3664,7 +3664,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-1038395251214495744</t>
+          <t>t-639699321500364800</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -3677,7 +3677,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-1038467054960095234</t>
+          <t>t-639804238848237568</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -3690,33 +3690,33 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-1038555106885681153</t>
+          <t>t-673837939248472064</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-607899372177747968</t>
+          <t>t-721969035412422656</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-1049725086469685248</t>
+          <t>t-722671206881746944</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -3729,20 +3729,20 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-610843183715463168</t>
+          <t>t-726061174727532544</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-880261784304631810</t>
+          <t>t-745683270160027648</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -3755,24 +3755,24 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-629437596280750080</t>
+          <t>t-757849369496301569</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-636961984953630720</t>
+          <t>t-758572772490637312</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -3781,20 +3781,20 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-771587937746071552</t>
+          <t>t-953220290657492992</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-671722697408290816</t>
+          <t>t-1026228357996969984</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -3807,11 +3807,11 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-677918822104473600</t>
+          <t>t-538818433920827392</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C260" t="n">
         <v>1</v>
@@ -3820,11 +3820,11 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-895489338364055553</t>
+          <t>t-754470366408507392</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C261" t="n">
         <v>1</v>
@@ -3833,24 +3833,24 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-678946767459618818</t>
+          <t>t-859608993752379392</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-679082878148341760</t>
+          <t>t-833086724096028673</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C263" t="n">
         <v>1</v>
@@ -3859,7 +3859,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-886426015374946304</t>
+          <t>t-893162180492787716</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3872,11 +3872,11 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-803234433000148994</t>
+          <t>t-655077150693990401</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C265" t="n">
         <v>1</v>
@@ -3885,11 +3885,11 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-803236909183107073</t>
+          <t>t-663721804310122496</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C266" t="n">
         <v>1</v>
@@ -3898,37 +3898,37 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-803260822801649664</t>
+          <t>t-666910428551897088</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-803260889940062209</t>
+          <t>t-727758683510329344</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-803271446357282816</t>
+          <t>t-727889856274247680</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C269" t="n">
         <v>1</v>
@@ -3937,20 +3937,20 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-727600217265049600</t>
+          <t>t-821117207245713408</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-753352623630278664</t>
+          <t>t-563347902408695811</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3963,20 +3963,20 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-762742863394254850</t>
+          <t>t-636560790015877120</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-922944953696899072</t>
+          <t>t-636561226298970112</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3989,20 +3989,20 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-922950403255341056</t>
+          <t>t-636561581355204609</t>
         </is>
       </c>
       <c r="B274" t="n">
         <v>1</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-922959565792083968</t>
+          <t>t-636600809573220352</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -4015,20 +4015,20 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-976481160363692032</t>
+          <t>t-636742652692688896</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-694804362510503936</t>
+          <t>t-686490326228402176</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -4041,20 +4041,20 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-1016527492478328832</t>
+          <t>t-687307828932030464</t>
         </is>
       </c>
       <c r="B278" t="n">
         <v>1</v>
       </c>
       <c r="C278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-751197637794230272</t>
+          <t>t-722677158112587776</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -4067,7 +4067,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-761251305100902400</t>
+          <t>t-565107354606518272</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -4080,20 +4080,20 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-1025467650649014283</t>
+          <t>t-573292412430376960</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-1025523844994412544</t>
+          <t>t-788874378666737664</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -4106,76 +4106,76 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-1025538626191380480</t>
+          <t>t-800018818399694848</t>
         </is>
       </c>
       <c r="B283" t="n">
         <v>1</v>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-1026286692037222401</t>
+          <t>t-800716652195282946</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-1026301775203037184</t>
+          <t>t-891969624929075201</t>
         </is>
       </c>
       <c r="B285" t="n">
         <v>1</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-1026820332710252544</t>
+          <t>t-892105609071349760</t>
         </is>
       </c>
       <c r="B286" t="n">
         <v>1</v>
       </c>
       <c r="C286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-1027725663703363584</t>
+          <t>t-892129259686428672</t>
         </is>
       </c>
       <c r="B287" t="n">
         <v>1</v>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-911704954636824576</t>
+          <t>t-894726430050754561</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C288" t="n">
         <v>1</v>
@@ -4184,7 +4184,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-1016293496980955136</t>
+          <t>t-913738686994501632</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -4197,20 +4197,20 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-998557475266859013</t>
+          <t>t-913756608974540800</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-999117713749495808</t>
+          <t>t-913812012400087040</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -4223,7 +4223,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-796435007673946112</t>
+          <t>t-957965473316069376</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -4236,24 +4236,24 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-796529318373584896</t>
+          <t>t-817491496857255936</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-796701113995104256</t>
+          <t>t-576618970368876544</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C294" t="n">
         <v>1</v>
@@ -4262,20 +4262,20 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-796745584795389952</t>
+          <t>t-648439576441171968</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-814665332673703936</t>
+          <t>t-649621017187512320</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -4288,7 +4288,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-814669018061803521</t>
+          <t>t-659011315088781312</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -4301,11 +4301,11 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-847243626082050048</t>
+          <t>t-659473740955189248</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -4314,7 +4314,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-847412512383356932</t>
+          <t>t-897976904019476481</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -4327,7 +4327,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-847416452424519680</t>
+          <t>t-995839519449640960</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -4340,11 +4340,11 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-847625871712112640</t>
+          <t>t-925720058432811008</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -4353,7 +4353,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-847873968065433600</t>
+          <t>t-873677712304463872</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -4366,11 +4366,11 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-848285144846921728</t>
+          <t>t-1042391419745435648</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -4379,7 +4379,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-848349687950266373</t>
+          <t>t-599007393494605824</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -4392,50 +4392,50 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-848632201470259200</t>
+          <t>t-599125027116568576</t>
         </is>
       </c>
       <c r="B305" t="n">
         <v>1</v>
       </c>
       <c r="C305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-848638922687221760</t>
+          <t>t-601584910428729344</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-848870222769606658</t>
+          <t>t-609930400341725185</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-848971430775709697</t>
+          <t>t-609937116462604289</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C308" t="n">
         <v>1</v>
@@ -4444,46 +4444,46 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-849083151532032000</t>
+          <t>t-878774409280016384</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-849228504088670208</t>
+          <t>t-912188711261036544</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-855194797681897472</t>
+          <t>t-912397778260840448</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-855248575567147008</t>
+          <t>t-912428211253972997</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -4496,24 +4496,24 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-885945201105219584</t>
+          <t>t-1049670308142206978</t>
         </is>
       </c>
       <c r="B313" t="n">
         <v>1</v>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-885947457330438145</t>
+          <t>t-607899372177747968</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C314" t="n">
         <v>1</v>
@@ -4522,89 +4522,89 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-841401006797815808</t>
+          <t>t-1049725086469685248</t>
         </is>
       </c>
       <c r="B315" t="n">
         <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-854163806288834560</t>
+          <t>t-612283618052825088</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-1047617270736936962</t>
+          <t>t-644964294954741760</t>
         </is>
       </c>
       <c r="B317" t="n">
         <v>0</v>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-860879398387556352</t>
+          <t>t-636961984953630720</t>
         </is>
       </c>
       <c r="B318" t="n">
         <v>1</v>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-880971995671875586</t>
+          <t>t-735633517237919744</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-881979226697740288</t>
+          <t>t-771587937746071552</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-913905079392047105</t>
+          <t>t-643571264011898881</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C321" t="n">
         <v>1</v>
@@ -4613,7 +4613,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-955145334002417666</t>
+          <t>t-676228752599314434</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -4626,7 +4626,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-702986489890775040</t>
+          <t>t-676234421217845248</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -4639,11 +4639,11 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-703410728628305920</t>
+          <t>t-676358315065016322</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C324" t="n">
         <v>1</v>
@@ -4652,37 +4652,37 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-941194598453571586</t>
+          <t>t-1006709802775412736</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-1022200671666401281</t>
+          <t>t-653702331221999616</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-513212132176175105</t>
+          <t>t-876856640372387842</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -4691,11 +4691,11 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-650288114116730880</t>
+          <t>t-655890642334257152</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C328" t="n">
         <v>1</v>
@@ -4704,11 +4704,11 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-776037646023925760</t>
+          <t>t-794366500865982467</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -4717,11 +4717,11 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-786070938412515329</t>
+          <t>t-863149830931185664</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C330" t="n">
         <v>1</v>
@@ -4730,98 +4730,98 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-786266752061669376</t>
+          <t>t-1001848606427697153</t>
         </is>
       </c>
       <c r="B331" t="n">
         <v>0</v>
       </c>
       <c r="C331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-786287404416135168</t>
+          <t>t-848401927432019970</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-786588204170346496</t>
+          <t>t-715468390047961088</t>
         </is>
       </c>
       <c r="B333" t="n">
         <v>0</v>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-786674211528015873</t>
+          <t>t-720246081364365312</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-953177789628407808</t>
+          <t>t-720295493985677312</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-953520796361744384</t>
+          <t>t-1054497487657021440</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-591229240311439360</t>
+          <t>t-725450676986335232</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-737657149174730753</t>
+          <t>t-910172109506273280</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -4834,7 +4834,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-737657922885423104</t>
+          <t>t-913012097595867137</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -4847,7 +4847,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-738291666285694976</t>
+          <t>t-829844333205413888</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -4860,50 +4860,50 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-635444360306368512</t>
+          <t>t-1029396532313968640</t>
         </is>
       </c>
       <c r="B341" t="n">
         <v>1</v>
       </c>
       <c r="C341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-529737265317421056</t>
+          <t>t-1029397392343425024</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-644488507239628800</t>
+          <t>t-1029408763877498885</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-644488513442983937</t>
+          <t>t-1029408838305361921</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -4912,37 +4912,37 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-909677183328751616</t>
+          <t>t-1029566349918527488</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-957544710825967616</t>
+          <t>t-1035527464511053825</t>
         </is>
       </c>
       <c r="B346" t="n">
         <v>1</v>
       </c>
       <c r="C346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-960182659325493248</t>
+          <t>t-880159202567753728</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -4951,20 +4951,20 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-965860574339923968</t>
+          <t>t-756636337130774528</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-1027585082050207745</t>
+          <t>t-996559091932770305</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -4977,37 +4977,37 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-577791187240787968</t>
+          <t>t-1016293496980955136</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-578574154607280128</t>
+          <t>t-764984507686490112</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-608655874496692224</t>
+          <t>t-772460103026868224</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -5016,11 +5016,11 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-609338660572536832</t>
+          <t>t-765596657039708160</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C353" t="n">
         <v>1</v>
@@ -5029,37 +5029,37 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-609783303168782337</t>
+          <t>t-766010493563568129</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-610483675487203328</t>
+          <t>t-779066799077851136</t>
         </is>
       </c>
       <c r="B355" t="n">
         <v>0</v>
       </c>
       <c r="C355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-634983488203177984</t>
+          <t>t-864828748495020032</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -5068,7 +5068,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-642582982285504512</t>
+          <t>t-925465361557975040</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -5081,46 +5081,46 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-704942166137806848</t>
+          <t>t-805294233020231681</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-704999838627340289</t>
+          <t>t-805399384150147076</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-705097327791443968</t>
+          <t>t-857651953928744960</t>
         </is>
       </c>
       <c r="B360" t="n">
         <v>0</v>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-706027191709077505</t>
+          <t>t-860847907427233792</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -5133,11 +5133,11 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-706161724236423169</t>
+          <t>t-884885746984681473</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C362" t="n">
         <v>1</v>
@@ -5146,72 +5146,72 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-706568676607205384</t>
+          <t>t-884938114657128448</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-706777295768461313</t>
+          <t>t-901254745888878592</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-706777701902917632</t>
+          <t>t-902559120888184833</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-706793199285739522</t>
+          <t>t-903611928827674624</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-707823125115879424</t>
+          <t>t-951198867181236228</t>
         </is>
       </c>
       <c r="B367" t="n">
         <v>0</v>
       </c>
       <c r="C367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-707871375474749441</t>
+          <t>t-1034597062573211651</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -5224,37 +5224,37 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-884135398854635520</t>
+          <t>t-974764041968132096</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-884163532958441472</t>
+          <t>t-974840717116956673</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-884173621224239104</t>
+          <t>t-1034792477096652801</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C371" t="n">
         <v>1</v>
@@ -5263,20 +5263,20 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-884176826679136256</t>
+          <t>t-1042831980822454273</t>
         </is>
       </c>
       <c r="B372" t="n">
         <v>1</v>
       </c>
       <c r="C372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-884179431887167489</t>
+          <t>t-1042864703981084672</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -5289,37 +5289,37 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-884282035384320001</t>
+          <t>t-1042868533963776005</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-884290062598451200</t>
+          <t>t-1043255346553389058</t>
         </is>
       </c>
       <c r="B375" t="n">
         <v>1</v>
       </c>
       <c r="C375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-884310032518664194</t>
+          <t>t-630691491766251520</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -5328,11 +5328,11 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-884325033430200320</t>
+          <t>t-941194598453571586</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C377" t="n">
         <v>0</v>
@@ -5341,11 +5341,11 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-948989121611075584</t>
+          <t>t-1016375311733284864</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C378" t="n">
         <v>0</v>
@@ -5354,50 +5354,50 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-954338199610019841</t>
+          <t>t-1022200671666401281</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-954407598069084160</t>
+          <t>t-513212132176175105</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-954798702530412546</t>
+          <t>t-1048603963069779968</t>
         </is>
       </c>
       <c r="B381" t="n">
         <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-955111272852414464</t>
+          <t>t-738823278840664064</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C382" t="n">
         <v>1</v>
@@ -5406,20 +5406,20 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-955374632034594816</t>
+          <t>t-786070938412515329</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-955380505121259520</t>
+          <t>t-786266752061669376</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -5432,20 +5432,20 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-955409675251482624</t>
+          <t>t-786287404416135168</t>
         </is>
       </c>
       <c r="B385" t="n">
         <v>1</v>
       </c>
       <c r="C385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-955739643634421760</t>
+          <t>t-786588204170346496</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -5458,7 +5458,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-955742558189162496</t>
+          <t>t-786674211528015873</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -5471,20 +5471,20 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-955766281730445313</t>
+          <t>t-953177789628407808</t>
         </is>
       </c>
       <c r="B388" t="n">
         <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-955807241533304833</t>
+          <t>t-953520796361744384</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -5497,7 +5497,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-956101750120857601</t>
+          <t>t-1051696567651106816</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -5510,33 +5510,33 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-956220929067151360</t>
+          <t>t-1051874637942947840</t>
         </is>
       </c>
       <c r="B391" t="n">
         <v>0</v>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-956413340225589248</t>
+          <t>t-591229240311439360</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-956438932681523200</t>
+          <t>t-676836902981513216</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -5549,50 +5549,50 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-956447631714279424</t>
+          <t>t-869830075268685825</t>
         </is>
       </c>
       <c r="B394" t="n">
         <v>0</v>
       </c>
       <c r="C394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-956464588559671297</t>
+          <t>t-1027294707855048705</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-956513066228834304</t>
+          <t>t-586533262912315392</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-1024937575906271233</t>
+          <t>t-951835055445413893</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C397" t="n">
         <v>1</v>
@@ -5601,72 +5601,72 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-1052528388341149696</t>
+          <t>t-788324770765008896</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-800633887386988544</t>
+          <t>t-865447859285405696</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-557320938375905282</t>
+          <t>t-865573879527428096</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-560682074529484800</t>
+          <t>t-957544710825967616</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-623733200322449409</t>
+          <t>t-534007858804056066</t>
         </is>
       </c>
       <c r="B402" t="n">
         <v>1</v>
       </c>
       <c r="C402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-684255556144619520</t>
+          <t>t-540907891566575616</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -5679,7 +5679,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-699529516008476673</t>
+          <t>t-541174080833978368</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -5692,102 +5692,102 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-818362228881719296</t>
+          <t>t-577791187240787968</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-818369931054030848</t>
+          <t>t-578574154607280128</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-818390305326137344</t>
+          <t>t-642582982285504512</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-818474161949601796</t>
+          <t>t-704942166137806848</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-818513625468010496</t>
+          <t>t-704999838627340289</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-818701658280628224</t>
+          <t>t-705097327791443968</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-818709014498443264</t>
+          <t>t-706027191709077505</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-819113813505146880</t>
+          <t>t-706161724236423169</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C412" t="n">
         <v>1</v>
@@ -5796,76 +5796,76 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-823181666160144384</t>
+          <t>t-706568676607205384</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-831105804946247681</t>
+          <t>t-706777295768461313</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-917052938425716736</t>
+          <t>t-706777701902917632</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-917054284579078144</t>
+          <t>t-706793199285739522</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-917061971631108097</t>
+          <t>t-707823125115879424</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-917080429227778048</t>
+          <t>t-707871375474749441</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C418" t="n">
         <v>0</v>
@@ -5874,59 +5874,59 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-917105709682216960</t>
+          <t>t-762281733672820736</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-996477889779511296</t>
+          <t>t-769394896344064001</t>
         </is>
       </c>
       <c r="B420" t="n">
         <v>0</v>
       </c>
       <c r="C420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-801715561692626944</t>
+          <t>t-770572723777105920</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-801720307002339328</t>
+          <t>t-806453539409162240</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-837620098416459776</t>
+          <t>t-806476961451216896</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -5939,50 +5939,50 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-570990543225950209</t>
+          <t>t-809171890690523137</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-633755138834874368</t>
+          <t>t-965524750264135680</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-756468934379966464</t>
+          <t>t-966320851678318593</t>
         </is>
       </c>
       <c r="B426" t="n">
         <v>0</v>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-869260706524397568</t>
+          <t>t-967380419707535360</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C427" t="n">
         <v>1</v>
@@ -5991,11 +5991,11 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-970012076428193796</t>
+          <t>t-1006399568249008128</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C428" t="n">
         <v>0</v>
@@ -6004,37 +6004,37 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-1024201138277638144</t>
+          <t>t-1006422910762995712</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-580822339648122880</t>
+          <t>t-1006422931839299584</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-581167008596758528</t>
+          <t>t-1006427045709180929</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C431" t="n">
         <v>1</v>
@@ -6043,7 +6043,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-760176410539528192</t>
+          <t>t-1006463635693203456</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -6056,11 +6056,11 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-764514429736132609</t>
+          <t>t-1038002421543391232</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C433" t="n">
         <v>1</v>
@@ -6069,11 +6069,11 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-764618483195838464</t>
+          <t>t-1060529365962948608</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C434" t="n">
         <v>1</v>
@@ -6082,24 +6082,24 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-862635910306856964</t>
+          <t>t-580823195311276032</t>
         </is>
       </c>
       <c r="B435" t="n">
         <v>0</v>
       </c>
       <c r="C435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-862992827487309824</t>
+          <t>t-549859905231142914</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C436" t="n">
         <v>1</v>
@@ -6108,11 +6108,11 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-863003997464080384</t>
+          <t>t-623733200322449409</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C437" t="n">
         <v>1</v>
@@ -6121,7 +6121,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-863121747360571392</t>
+          <t>t-652334979544948736</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -6134,7 +6134,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-988840187785568257</t>
+          <t>t-699529516008476673</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -6147,20 +6147,20 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-993886363249455104</t>
+          <t>t-818362228881719296</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-1005061843843289088</t>
+          <t>t-818369931054030848</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -6173,11 +6173,11 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-583486848426713088</t>
+          <t>t-818390305326137344</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C442" t="n">
         <v>1</v>
@@ -6186,72 +6186,72 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-742289179535659008</t>
+          <t>t-818474161949601796</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-743359058392940544</t>
+          <t>t-818513625468010496</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-586494775089442816</t>
+          <t>t-818701658280628224</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-612970627083968512</t>
+          <t>t-818709014498443264</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-690751741676142592</t>
+          <t>t-819113813505146880</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-741661270017970176</t>
+          <t>t-888058781363580930</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -6264,11 +6264,11 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-895521975434530816</t>
+          <t>t-996477889779511296</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C449" t="n">
         <v>0</v>
@@ -6277,20 +6277,20 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-895525136580923394</t>
+          <t>t-1057351782484115458</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-956419595136585729</t>
+          <t>t-564785591561506817</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -6303,20 +6303,20 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-720146113794183169</t>
+          <t>t-570985250324656128</t>
         </is>
       </c>
       <c r="B452" t="n">
         <v>1</v>
       </c>
       <c r="C452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-743905323543629825</t>
+          <t>t-571078007407775744</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -6329,7 +6329,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-877183876254269441</t>
+          <t>t-571808211742814209</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -6342,20 +6342,20 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-877213422538158080</t>
+          <t>t-888068991020929025</t>
         </is>
       </c>
       <c r="B455" t="n">
         <v>1</v>
       </c>
       <c r="C455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-800696529770151938</t>
+          <t>t-861227956118716416</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -6368,11 +6368,11 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-955871714914766849</t>
+          <t>t-837336632667877376</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C457" t="n">
         <v>0</v>
@@ -6381,89 +6381,89 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-605693478799065088</t>
+          <t>t-993886363249455104</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-605727874348384256</t>
+          <t>t-581115572282376192</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-605802486604046337</t>
+          <t>t-742289179535659008</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-605842449722777601</t>
+          <t>t-743359058392940544</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-605899935117017088</t>
+          <t>t-817303376253882368</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-609461898141147136</t>
+          <t>t-591541513768673280</t>
         </is>
       </c>
       <c r="B463" t="n">
         <v>1</v>
       </c>
       <c r="C463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-753246884345487361</t>
+          <t>t-595251975568109568</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C464" t="n">
         <v>1</v>
@@ -6472,20 +6472,20 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-916986223478140928</t>
+          <t>t-612970627083968512</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-884366275937521664</t>
+          <t>t-942758921533624320</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -6498,11 +6498,11 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-849766480828878849</t>
+          <t>t-624613462476337152</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C467" t="n">
         <v>1</v>
@@ -6511,20 +6511,20 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-1013800752567996416</t>
+          <t>t-624628271745998852</t>
         </is>
       </c>
       <c r="B468" t="n">
         <v>1</v>
       </c>
       <c r="C468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-953295637679951872</t>
+          <t>t-877183876254269441</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -6537,11 +6537,11 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-953311292475011072</t>
+          <t>t-877213422538158080</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C470" t="n">
         <v>0</v>
@@ -6550,20 +6550,20 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-652148120952803329</t>
+          <t>t-948800001890713600</t>
         </is>
       </c>
       <c r="B471" t="n">
         <v>0</v>
       </c>
       <c r="C471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-660041764225589248</t>
+          <t>t-1050165943790460929</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -6576,115 +6576,115 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-671784280259866624</t>
+          <t>t-800696529770151938</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-674905913438769153</t>
+          <t>t-605693478799065088</t>
         </is>
       </c>
       <c r="B474" t="n">
         <v>1</v>
       </c>
       <c r="C474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-692403922451992576</t>
+          <t>t-605727874348384256</t>
         </is>
       </c>
       <c r="B475" t="n">
         <v>1</v>
       </c>
       <c r="C475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-948994988666425345</t>
+          <t>t-605802486604046337</t>
         </is>
       </c>
       <c r="B476" t="n">
         <v>1</v>
       </c>
       <c r="C476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-949010413437497347</t>
+          <t>t-605842449722777601</t>
         </is>
       </c>
       <c r="B477" t="n">
         <v>1</v>
       </c>
       <c r="C477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-949151246799142913</t>
+          <t>t-605899935117017088</t>
         </is>
       </c>
       <c r="B478" t="n">
         <v>1</v>
       </c>
       <c r="C478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-708088836748910592</t>
+          <t>t-776349771640496128</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-835605594534981633</t>
+          <t>t-609461898141147136</t>
         </is>
       </c>
       <c r="B480" t="n">
         <v>1</v>
       </c>
       <c r="C480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-835708598772727808</t>
+          <t>t-753246884345487361</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C481" t="n">
         <v>1</v>
@@ -6693,11 +6693,11 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-736808558038265858</t>
+          <t>t-997420355043102720</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C482" t="n">
         <v>0</v>
@@ -6706,37 +6706,37 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-737563920496349185</t>
+          <t>t-618340855657721856</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-737703959993913344</t>
+          <t>t-884366275937521664</t>
         </is>
       </c>
       <c r="B484" t="n">
         <v>1</v>
       </c>
       <c r="C484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-737753796202385408</t>
+          <t>t-619208680349765633</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C485" t="n">
         <v>0</v>
@@ -6745,7 +6745,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-737755886211477504</t>
+          <t>t-633703854580830208</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -6758,7 +6758,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-737784335567364096</t>
+          <t>t-1006630570447777793</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -6771,7 +6771,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-737884729626791936</t>
+          <t>t-642781966346010625</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -6784,7 +6784,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-737979350088323072</t>
+          <t>t-643095780228771840</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -6797,24 +6797,24 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-955134939699310592</t>
+          <t>t-643795122480631808</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-737976116753883136</t>
+          <t>t-663799425475731457</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C491" t="n">
         <v>1</v>
@@ -6823,11 +6823,11 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-738434736910176256</t>
+          <t>t-723039191961985026</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C492" t="n">
         <v>0</v>
@@ -6836,7 +6836,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-738019407536984064</t>
+          <t>t-910016271554576384</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -6849,11 +6849,11 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-738062401308917760</t>
+          <t>t-692403922451992576</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C494" t="n">
         <v>0</v>
@@ -6862,46 +6862,46 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-738968020773703680</t>
+          <t>t-695507166833184769</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-739102239302770689</t>
+          <t>t-829095437466533888</t>
         </is>
       </c>
       <c r="B496" t="n">
         <v>1</v>
       </c>
       <c r="C496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-739132972742418432</t>
+          <t>t-943797632639610881</t>
         </is>
       </c>
       <c r="B497" t="n">
         <v>1</v>
       </c>
       <c r="C497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-739365982360178688</t>
+          <t>t-948994988666425345</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -6914,20 +6914,20 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-739454625393324032</t>
+          <t>t-949010413437497347</t>
         </is>
       </c>
       <c r="B499" t="n">
         <v>1</v>
       </c>
       <c r="C499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-1006391548668514309</t>
+          <t>t-949151246799142913</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -6940,46 +6940,46 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-1006459221448318981</t>
+          <t>t-952055483354972160</t>
         </is>
       </c>
       <c r="B501" t="n">
         <v>1</v>
       </c>
       <c r="C501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-745170424456052736</t>
+          <t>t-781871738888065024</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-738762935133188098</t>
+          <t>t-720951969716809728</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-738790953792720896</t>
+          <t>t-736808558038265858</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -6992,7 +6992,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-1005463006455754752</t>
+          <t>t-737703959993913344</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -7005,20 +7005,20 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-740256345773985793</t>
+          <t>t-737753796202385408</t>
         </is>
       </c>
       <c r="B506" t="n">
         <v>1</v>
       </c>
       <c r="C506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-741525012784553985</t>
+          <t>t-737755886211477504</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -7031,7 +7031,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-743445326611251200</t>
+          <t>t-737784335567364096</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -7044,46 +7044,46 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-754249103434022912</t>
+          <t>t-737884729626791936</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-952704809529851906</t>
+          <t>t-737979350088323072</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-1041726034662633472</t>
+          <t>t-955134939699310592</t>
         </is>
       </c>
       <c r="B511" t="n">
         <v>0</v>
       </c>
       <c r="C511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-775906484295204864</t>
+          <t>t-737976116753883136</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -7096,11 +7096,11 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-795263551388663808</t>
+          <t>t-738434736910176256</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C513" t="n">
         <v>0</v>
@@ -7109,7 +7109,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-827575866729361408</t>
+          <t>t-952868151414403072</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -7122,7 +7122,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-834086991646048256</t>
+          <t>t-956876178509516800</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -7135,7 +7135,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-834349788053266432</t>
+          <t>t-958391208602193920</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -7148,7 +7148,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-992831860215615489</t>
+          <t>t-738250548865032192</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -7161,20 +7161,20 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-862454112507580416</t>
+          <t>t-738751926372827136</t>
         </is>
       </c>
       <c r="B518" t="n">
         <v>1</v>
       </c>
       <c r="C518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-867414851802599424</t>
+          <t>t-897405884489506816</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -7187,37 +7187,37 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-1019231079817973760</t>
+          <t>t-755694559401762816</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-875285232924188672</t>
+          <t>t-952704809529851906</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-892499939137335296</t>
+          <t>t-1041726034662633472</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C522" t="n">
         <v>1</v>
@@ -7226,7 +7226,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-894025914476105728</t>
+          <t>t-760176866099601408</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -7239,33 +7239,33 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-904822909704822785</t>
+          <t>t-760420119554076674</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-953919004132986880</t>
+          <t>t-765679686244454400</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-970932114597335040</t>
+          <t>t-795263551388663808</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -7278,7 +7278,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-949166298210082816</t>
+          <t>t-819911710349922305</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -7291,63 +7291,63 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-949999091047477249</t>
+          <t>t-834802174559412225</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-956067919263346688</t>
+          <t>t-834086991646048256</t>
         </is>
       </c>
       <c r="B529" t="n">
         <v>1</v>
       </c>
       <c r="C529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-956083408882536448</t>
+          <t>t-834349788053266432</t>
         </is>
       </c>
       <c r="B530" t="n">
         <v>1</v>
       </c>
       <c r="C530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-955806828146827266</t>
+          <t>t-862319925528023040</t>
         </is>
       </c>
       <c r="B531" t="n">
         <v>1</v>
       </c>
       <c r="C531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-986982915262308353</t>
+          <t>t-862320640791121920</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C532" t="n">
         <v>0</v>
@@ -7356,20 +7356,20 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-988749833476325376</t>
+          <t>t-836581914320506880</t>
         </is>
       </c>
       <c r="B533" t="n">
         <v>0</v>
       </c>
       <c r="C533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-1003736255149027328</t>
+          <t>t-855547644516732928</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -7382,24 +7382,24 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-1006233702052057088</t>
+          <t>t-855563578274754560</t>
         </is>
       </c>
       <c r="B535" t="n">
         <v>1</v>
       </c>
       <c r="C535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-1028077071480832000</t>
+          <t>t-946052034461040640</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C536" t="n">
         <v>0</v>
@@ -7408,11 +7408,11 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-1030184521969410055</t>
+          <t>t-1019231079817973760</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C537" t="n">
         <v>0</v>
@@ -7421,20 +7421,20 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-1043100641466490881</t>
+          <t>t-886643817893560320</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-1043534562775781377</t>
+          <t>t-890626982773481473</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -7447,11 +7447,11 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-495525926722367488</t>
+          <t>t-894025914476105728</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C540" t="n">
         <v>0</v>
@@ -7460,7 +7460,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-676725475671085057</t>
+          <t>t-938446444700237824</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -7473,11 +7473,11 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-786169556586770432</t>
+          <t>t-949248780280516608</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C542" t="n">
         <v>1</v>
@@ -7486,7 +7486,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-898971629665099776</t>
+          <t>t-986982915262308353</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -7499,20 +7499,20 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-904503608246362112</t>
+          <t>t-988749833476325376</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-498746062224375809</t>
+          <t>t-1003659615115141120</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -7525,76 +7525,76 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-499104320717996032</t>
+          <t>t-1043053295298899968</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-512537797442273280</t>
+          <t>t-1043072721595375616</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-572446866039697408</t>
+          <t>t-1043145723687129090</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-620843348505432064</t>
+          <t>t-494327833263874048</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-629559315221737472</t>
+          <t>t-565143761131671552</t>
         </is>
       </c>
       <c r="B550" t="n">
         <v>0</v>
       </c>
       <c r="C550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-658803849289990144</t>
+          <t>t-666296658595069952</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C551" t="n">
         <v>0</v>
@@ -7603,11 +7603,11 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-659014102774325248</t>
+          <t>t-666325159947563008</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C552" t="n">
         <v>1</v>
@@ -7616,11 +7616,11 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-683238954309566464</t>
+          <t>t-845604671851057152</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C553" t="n">
         <v>1</v>
@@ -7629,46 +7629,46 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-683901242314067968</t>
+          <t>t-891629267066290176</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-686071224749821953</t>
+          <t>t-931841011340296192</t>
         </is>
       </c>
       <c r="B555" t="n">
         <v>0</v>
       </c>
       <c r="C555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-719019371499130881</t>
+          <t>t-956368490293800960</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-790900222368976896</t>
+          <t>t-956387965382610945</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -7681,11 +7681,11 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-790909371781746688</t>
+          <t>t-532541340023017473</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C558" t="n">
         <v>1</v>
@@ -7694,7 +7694,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-791594802844434434</t>
+          <t>t-627052129107087360</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -7707,7 +7707,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-796846317632790528</t>
+          <t>t-627062516095455232</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -7720,7 +7720,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-823528889578377221</t>
+          <t>t-627070573118488576</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -7733,7 +7733,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-823565116511617024</t>
+          <t>t-627075912631083008</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -7746,7 +7746,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-823567614731382784</t>
+          <t>t-627076573653561344</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -7759,7 +7759,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-823729659921760256</t>
+          <t>t-645961089671405568</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -7772,20 +7772,20 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-823776797145763840</t>
+          <t>t-664426560234110976</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-823797969539338240</t>
+          <t>t-674391856298385408</t>
         </is>
       </c>
       <c r="B566" t="n">
@@ -7798,7 +7798,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-824162412861464576</t>
+          <t>t-674458539629219844</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -7811,7 +7811,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-824171170761162752</t>
+          <t>t-755613145079484416</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -7824,20 +7824,20 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-824209269432012802</t>
+          <t>t-806863559212679168</t>
         </is>
       </c>
       <c r="B569" t="n">
         <v>1</v>
       </c>
       <c r="C569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-824256850644176897</t>
+          <t>t-823528889578377221</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -7850,7 +7850,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-824424167730655233</t>
+          <t>t-823565116511617024</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -7863,7 +7863,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-824425957838581760</t>
+          <t>t-823567614731382784</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -7876,7 +7876,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-824537640233889792</t>
+          <t>t-823729659921760256</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -7889,33 +7889,33 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-824596362859667456</t>
+          <t>t-823776797145763840</t>
         </is>
       </c>
       <c r="B574" t="n">
         <v>1</v>
       </c>
       <c r="C574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-824596669597569025</t>
+          <t>t-823797969539338240</t>
         </is>
       </c>
       <c r="B575" t="n">
         <v>1</v>
       </c>
       <c r="C575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-824814008108593152</t>
+          <t>t-824162412861464576</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -7928,7 +7928,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-824990518815842304</t>
+          <t>t-824171170761162752</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -7941,20 +7941,20 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-825140161293934594</t>
+          <t>t-824209269432012802</t>
         </is>
       </c>
       <c r="B578" t="n">
         <v>1</v>
       </c>
       <c r="C578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-825322589002149888</t>
+          <t>t-824256850644176897</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -7967,7 +7967,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-825486203914842112</t>
+          <t>t-824424167730655233</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -7980,7 +7980,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-875288006172831744</t>
+          <t>t-824425957838581760</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -7993,20 +7993,20 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-879622376966635521</t>
+          <t>t-824537640233889792</t>
         </is>
       </c>
       <c r="B582" t="n">
         <v>1</v>
       </c>
       <c r="C582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-879625739317854209</t>
+          <t>t-824596362859667456</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -8019,11 +8019,11 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-879987948296568834</t>
+          <t>t-824596669597569025</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C584" t="n">
         <v>1</v>
@@ -8032,7 +8032,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-930305225726054400</t>
+          <t>t-824814008108593152</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -8045,7 +8045,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-940565575226372102</t>
+          <t>t-824990518815842304</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -8058,7 +8058,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-940637216757477377</t>
+          <t>t-825140161293934594</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -8071,7 +8071,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-1041319973430255616</t>
+          <t>t-825322589002149888</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -8084,7 +8084,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-520490218210594817</t>
+          <t>t-825486203914842112</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -8097,11 +8097,11 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-650617914194694144</t>
+          <t>t-828910647861616640</t>
         </is>
       </c>
       <c r="B590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C590" t="n">
         <v>1</v>
@@ -8110,37 +8110,37 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-697693466298552321</t>
+          <t>t-829261659726295045</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-697911341554610176</t>
+          <t>t-831833976029454338</t>
         </is>
       </c>
       <c r="B592" t="n">
         <v>0</v>
       </c>
       <c r="C592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-710310372985741313</t>
+          <t>t-912643743894949888</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C593" t="n">
         <v>1</v>
@@ -8149,11 +8149,11 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-762938358486052865</t>
+          <t>t-930305225726054400</t>
         </is>
       </c>
       <c r="B594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C594" t="n">
         <v>1</v>
@@ -8162,33 +8162,33 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-772650812623290373</t>
+          <t>t-940565575226372102</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-772781827224285184</t>
+          <t>t-940637216757477377</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-773074057805737984</t>
+          <t>t-970475324591915008</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -8201,33 +8201,33 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-782517721938300928</t>
+          <t>t-1061409798053224448</t>
         </is>
       </c>
       <c r="B598" t="n">
         <v>0</v>
       </c>
       <c r="C598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-806390063244410880</t>
+          <t>t-1061535382406348800</t>
         </is>
       </c>
       <c r="B599" t="n">
         <v>1</v>
       </c>
       <c r="C599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-806499176066453505</t>
+          <t>t-520490218210594817</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -8240,72 +8240,72 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-857957864354086912</t>
+          <t>t-675258412049956865</t>
         </is>
       </c>
       <c r="B601" t="n">
         <v>1</v>
       </c>
       <c r="C601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-857974981891719168</t>
+          <t>t-710310372985741313</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-871870603011043328</t>
+          <t>t-718742884065759233</t>
         </is>
       </c>
       <c r="B603" t="n">
         <v>0</v>
       </c>
       <c r="C603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-872126007855038464</t>
+          <t>t-727016962102980608</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-948796201708675072</t>
+          <t>t-727141031607595008</t>
         </is>
       </c>
       <c r="B605" t="n">
         <v>1</v>
       </c>
       <c r="C605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-948886764244033537</t>
+          <t>t-728392912636149760</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -8318,46 +8318,46 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-503088287381082112</t>
+          <t>t-772650812623290373</t>
         </is>
       </c>
       <c r="B607" t="n">
         <v>0</v>
       </c>
       <c r="C607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-574404715376603136</t>
+          <t>t-772781827224285184</t>
         </is>
       </c>
       <c r="B608" t="n">
         <v>0</v>
       </c>
       <c r="C608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-580217985706528769</t>
+          <t>t-773074057805737984</t>
         </is>
       </c>
       <c r="B609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-587184590302814208</t>
+          <t>t-857957864354086912</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -8370,24 +8370,24 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-587194258815221760</t>
+          <t>t-857974981891719168</t>
         </is>
       </c>
       <c r="B611" t="n">
         <v>1</v>
       </c>
       <c r="C611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-587194893052747777</t>
+          <t>t-527780384159703040</t>
         </is>
       </c>
       <c r="B612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C612" t="n">
         <v>1</v>
@@ -8396,11 +8396,11 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-645905787584274433</t>
+          <t>t-532513757776183296</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C613" t="n">
         <v>1</v>
@@ -8409,11 +8409,11 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-645928760433246209</t>
+          <t>t-645905787584274433</t>
         </is>
       </c>
       <c r="B614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C614" t="n">
         <v>1</v>
@@ -8422,33 +8422,33 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-645952188204761088</t>
+          <t>t-645928760433246209</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-646249606892797957</t>
+          <t>t-645952188204761088</t>
         </is>
       </c>
       <c r="B616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-685773216275533824</t>
+          <t>t-646249606892797957</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -8513,11 +8513,11 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-834984646416842753</t>
+          <t>t-736424760335179778</t>
         </is>
       </c>
       <c r="B622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C622" t="n">
         <v>1</v>
@@ -8526,7 +8526,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-834986851718946816</t>
+          <t>t-749065341586726912</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -8539,24 +8539,24 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-835051963096121344</t>
+          <t>t-756020759726727169</t>
         </is>
       </c>
       <c r="B624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-839825336552468480</t>
+          <t>t-764804167068024832</t>
         </is>
       </c>
       <c r="B625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C625" t="n">
         <v>1</v>
@@ -8591,11 +8591,11 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-868766918035079168</t>
+          <t>t-1036192189947281408</t>
         </is>
       </c>
       <c r="B628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C628" t="n">
         <v>1</v>
@@ -8604,33 +8604,33 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-922601399271112704</t>
+          <t>t-1061598368164528128</t>
         </is>
       </c>
       <c r="B629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-928491239808233473</t>
+          <t>t-1061625768696930304</t>
         </is>
       </c>
       <c r="B630" t="n">
         <v>1</v>
       </c>
       <c r="C630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-928882270554877953</t>
+          <t>t-1061782167494320130</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -8643,7 +8643,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-928900503953588224</t>
+          <t>t-1062219458046058496</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -8656,7 +8656,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-928967839649804289</t>
+          <t>t-563978477183840256</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -8669,7 +8669,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-929323628226686976</t>
+          <t>t-756176490119647232</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -8682,20 +8682,20 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-1036192189947281408</t>
+          <t>t-831995329318772736</t>
         </is>
       </c>
       <c r="B635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-756176490119647232</t>
+          <t>t-964120690952564737</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -8708,7 +8708,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-518708677113438208</t>
+          <t>t-538727466139803648</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -8721,20 +8721,20 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-768634144851013633</t>
+          <t>t-664725934935707650</t>
         </is>
       </c>
       <c r="B638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-769506262551715840</t>
+          <t>t-712147646559879168</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -8747,20 +8747,20 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-795674749028462592</t>
+          <t>t-801312317355003904</t>
         </is>
       </c>
       <c r="B640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-853130130432176128</t>
+          <t>t-929369497420685312</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -8773,11 +8773,11 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-902843730587115520</t>
+          <t>t-936830929384828928</t>
         </is>
       </c>
       <c r="B642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C642" t="n">
         <v>1</v>
@@ -8786,7 +8786,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-696949735576489985</t>
+          <t>t-936988511051292672</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,7 +8799,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-697001638108598272</t>
+          <t>t-1032843605826621440</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -8812,24 +8812,24 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-716900054133399553</t>
+          <t>t-521700184376770560</t>
         </is>
       </c>
       <c r="B645" t="n">
         <v>1</v>
       </c>
       <c r="C645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-744191847128436736</t>
+          <t>t-902843730587115520</t>
         </is>
       </c>
       <c r="B646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C646" t="n">
         <v>0</v>
@@ -8838,7 +8838,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-825956164366172160</t>
+          <t>t-971295308981383168</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -8851,7 +8851,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-825956302023163905</t>
+          <t>t-694164443224154112</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -8864,7 +8864,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-825967811814125568</t>
+          <t>t-694343886626394113</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -8877,7 +8877,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-825983840988467200</t>
+          <t>t-694445663426207744</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,11 +8890,11 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-830684745323327488</t>
+          <t>t-799444908029284352</t>
         </is>
       </c>
       <c r="B651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C651" t="n">
         <v>1</v>
@@ -8903,7 +8903,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-545394272619331584</t>
+          <t>t-799480577057583104</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -8916,24 +8916,24 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-558428892898131968</t>
+          <t>t-801391859083988993</t>
         </is>
       </c>
       <c r="B653" t="n">
         <v>1</v>
       </c>
       <c r="C653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-558596887519850496</t>
+          <t>t-836878014587744257</t>
         </is>
       </c>
       <c r="B654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C654" t="n">
         <v>1</v>
@@ -8942,24 +8942,24 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-674974370180239360</t>
+          <t>t-534323907642142720</t>
         </is>
       </c>
       <c r="B655" t="n">
         <v>0</v>
       </c>
       <c r="C655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-797741772730306560</t>
+          <t>t-673010347008110593</t>
         </is>
       </c>
       <c r="B656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C656" t="n">
         <v>1</v>
@@ -8968,7 +8968,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-797789959478353920</t>
+          <t>t-797741772730306560</t>
         </is>
       </c>
       <c r="B657" t="n">
@@ -8981,7 +8981,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-797794521597644800</t>
+          <t>t-797789959478353920</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -8994,7 +8994,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-919103523458969600</t>
+          <t>t-797794521597644800</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -9020,24 +9020,24 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-544711019629907968</t>
+          <t>t-550823263941574657</t>
         </is>
       </c>
       <c r="B661" t="n">
         <v>1</v>
       </c>
       <c r="C661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-544769671799394304</t>
+          <t>t-668452855993511936</t>
         </is>
       </c>
       <c r="B662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C662" t="n">
         <v>1</v>
@@ -9046,7 +9046,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-544813894037147648</t>
+          <t>t-798752071239409665</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -9059,7 +9059,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-545169541052243968</t>
+          <t>t-815040393884467200</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -9072,7 +9072,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-547033780322455552</t>
+          <t>t-540747270207991808</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -9085,20 +9085,20 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-547601049230782464</t>
+          <t>t-709944298301628416</t>
         </is>
       </c>
       <c r="B666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-548131100095442945</t>
+          <t>t-723151439586013184</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -9111,7 +9111,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-557096941750743040</t>
+          <t>t-785106169677230080</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -9124,7 +9124,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-816403303852425216</t>
+          <t>t-785108107227561984</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -9137,7 +9137,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-822808230711721984</t>
+          <t>t-785110315553787904</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -9150,24 +9150,24 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-670770027604213760</t>
+          <t>t-785111654228856832</t>
         </is>
       </c>
       <c r="B671" t="n">
         <v>1</v>
       </c>
       <c r="C671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-636337860757483520</t>
+          <t>t-785153740848308225</t>
         </is>
       </c>
       <c r="B672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C672" t="n">
         <v>1</v>
@@ -9176,7 +9176,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-723151439586013184</t>
+          <t>t-785284230573993984</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -9189,7 +9189,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-773077201063407617</t>
+          <t>t-785337680368467968</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -9202,11 +9202,11 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-787902147698450432</t>
+          <t>t-785343194607202304</t>
         </is>
       </c>
       <c r="B675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C675" t="n">
         <v>1</v>
@@ -9215,20 +9215,20 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-787981561949921280</t>
+          <t>t-785389967123984386</t>
         </is>
       </c>
       <c r="B676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-964122358905823232</t>
+          <t>t-786190856218746880</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -9241,11 +9241,11 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-544020486527528960</t>
+          <t>t-786491706409492481</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C678" t="n">
         <v>1</v>
@@ -9254,7 +9254,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-567587172367077376</t>
+          <t>t-919895715089932288</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -9267,7 +9267,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-666482399069343745</t>
+          <t>t-965551093982769152</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -9280,7 +9280,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-809685070428524546</t>
+          <t>t-966989390873378816</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -9293,14 +9293,14 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-820399938416754688</t>
+          <t>t-734985227739619329</t>
         </is>
       </c>
       <c r="B682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683">
@@ -9319,7 +9319,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-824143990274588672</t>
+          <t>t-857803058968838144</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -9332,11 +9332,11 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-993018034288705536</t>
+          <t>t-857867986841079808</t>
         </is>
       </c>
       <c r="B685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C685" t="n">
         <v>1</v>
@@ -9345,11 +9345,11 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-557074144505114625</t>
+          <t>t-801684041787273216</t>
         </is>
       </c>
       <c r="B686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C686" t="n">
         <v>0</v>
@@ -9358,20 +9358,20 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-801684041787273216</t>
+          <t>t-814411097864159233</t>
         </is>
       </c>
       <c r="B687" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C687" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-814411097864159233</t>
+          <t>t-814414402203983872</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -9384,7 +9384,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-814414402203983872</t>
+          <t>t-814417111921479680</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -9397,7 +9397,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-814417111921479680</t>
+          <t>t-814418757657296896</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -9410,20 +9410,20 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-814418757657296896</t>
+          <t>t-814543705935736832</t>
         </is>
       </c>
       <c r="B691" t="n">
         <v>1</v>
       </c>
       <c r="C691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-814543705935736832</t>
+          <t>t-908138128514437120</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,7 +9436,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-908138128514437120</t>
+          <t>t-1037871134488707072</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -9449,7 +9449,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-556107639625510912</t>
+          <t>t-1037879643695529985</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -9462,11 +9462,11 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-658189046523412480</t>
+          <t>t-1037893136482103296</t>
         </is>
       </c>
       <c r="B695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C695" t="n">
         <v>1</v>
@@ -9475,7 +9475,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-808956641743732736</t>
+          <t>t-1037997508973060096</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -9488,7 +9488,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-809733108471889920</t>
+          <t>t-555130566706622465</t>
         </is>
       </c>
       <c r="B697" t="n">
@@ -9501,7 +9501,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-839272244895309824</t>
+          <t>t-703883305427427329</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -9514,20 +9514,20 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-936534965277294597</t>
+          <t>t-704164134657486848</t>
         </is>
       </c>
       <c r="B699" t="n">
         <v>1</v>
       </c>
       <c r="C699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-936606274795462656</t>
+          <t>t-558523740888109056</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -9540,24 +9540,24 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-638407777333850112</t>
+          <t>t-704474821959163905</t>
         </is>
       </c>
       <c r="B701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-741496457824374784</t>
+          <t>t-808956641743732736</t>
         </is>
       </c>
       <c r="B702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C702" t="n">
         <v>1</v>
@@ -9566,20 +9566,20 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-795497536291094528</t>
+          <t>t-809733108471889920</t>
         </is>
       </c>
       <c r="B703" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C703" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-805321168580395008</t>
+          <t>t-946271534502395905</t>
         </is>
       </c>
       <c r="B704" t="n">
@@ -9592,46 +9592,46 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-870645957704265729</t>
+          <t>t-936534965277294597</t>
         </is>
       </c>
       <c r="B705" t="n">
         <v>1</v>
       </c>
       <c r="C705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-870651401311014912</t>
+          <t>t-936606274795462656</t>
         </is>
       </c>
       <c r="B706" t="n">
         <v>1</v>
       </c>
       <c r="C706" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-979975965760720898</t>
+          <t>t-563242661562576896</t>
         </is>
       </c>
       <c r="B707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-1004628011856089090</t>
+          <t>t-564304402253508608</t>
         </is>
       </c>
       <c r="B708" t="n">
@@ -9644,7 +9644,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-777104599379423233</t>
+          <t>t-761430337377349632</t>
         </is>
       </c>
       <c r="B709" t="n">
@@ -9657,24 +9657,24 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-777106884058763264</t>
+          <t>t-979975965760720898</t>
         </is>
       </c>
       <c r="B710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-843318937064366080</t>
+          <t>t-998840776758120448</t>
         </is>
       </c>
       <c r="B711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C711" t="n">
         <v>1</v>
@@ -9683,7 +9683,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-845628167855357953</t>
+          <t>t-566151747232489472</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -9696,11 +9696,11 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-997052112126136320</t>
+          <t>t-642718104875732992</t>
         </is>
       </c>
       <c r="B713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C713" t="n">
         <v>1</v>
@@ -9709,24 +9709,24 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-998772384076320768</t>
+          <t>t-702366811925438465</t>
         </is>
       </c>
       <c r="B714" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C714" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-998825906733920257</t>
+          <t>t-819830340390830081</t>
         </is>
       </c>
       <c r="B715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C715" t="n">
         <v>1</v>
@@ -9735,7 +9735,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-568062001399746560</t>
+          <t>t-845628167855357953</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -9748,11 +9748,11 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-572370799971053568</t>
+          <t>t-833819761821757440</t>
         </is>
       </c>
       <c r="B717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C717" t="n">
         <v>1</v>
@@ -9761,7 +9761,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-837085298324619265</t>
+          <t>t-590978217546092544</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -9774,7 +9774,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-683203716623646720</t>
+          <t>t-935417453286326277</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -9787,7 +9787,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-697592269315010562</t>
+          <t>t-675601382867537920</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -9800,7 +9800,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-697721034691096580</t>
+          <t>t-676436379425894400</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -9813,7 +9813,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-737450472194211841</t>
+          <t>t-837085298324619265</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -9826,7 +9826,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-737498199435317252</t>
+          <t>t-737450472194211841</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -9839,7 +9839,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-829258775257346048</t>
+          <t>t-737498199435317252</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -9852,7 +9852,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-829280839464845312</t>
+          <t>t-785264263749308416</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,7 +9865,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-829291437292396544</t>
+          <t>t-785310124797669377</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -9878,7 +9878,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-829294998201970688</t>
+          <t>t-785316828025421824</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,7 +9891,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-829512724761620480</t>
+          <t>t-785325402981924866</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-745577469814538240</t>
+          <t>t-785347096031268864</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,11 +9917,11 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-760724447745699841</t>
+          <t>t-732116489394851840</t>
         </is>
       </c>
       <c r="B730" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C730" t="n">
         <v>1</v>
@@ -9930,7 +9930,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-833891988315336704</t>
+          <t>t-732306842290946048</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -9943,13 +9943,26 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-940573035752386560</t>
+          <t>t-745577469814538240</t>
         </is>
       </c>
       <c r="B732" t="n">
         <v>1</v>
       </c>
       <c r="C732" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>t-928096679089209344</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>0</v>
+      </c>
+      <c r="C733" t="n">
         <v>1</v>
       </c>
     </row>
